--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>274.58104755003876</v>
+        <v>274.58104751632982</v>
       </c>
       <c r="C2">
-        <v>265.48469883431295</v>
+        <v>265.48469883887083</v>
       </c>
       <c r="D2">
-        <v>196.72941547080796</v>
+        <v>196.72941563680649</v>
       </c>
       <c r="E2">
-        <v>270.85830713178166</v>
+        <v>270.85830705081435</v>
       </c>
       <c r="F2">
-        <v>201.8460674111839</v>
+        <v>201.84606739505455</v>
       </c>
       <c r="G2">
-        <v>274.68472331127896</v>
+        <v>274.68472328473393</v>
       </c>
       <c r="H2">
-        <v>238.529209270862</v>
+        <v>238.52920921453287</v>
       </c>
       <c r="I2">
-        <v>301.48484712928689</v>
+        <v>301.48484711879559</v>
       </c>
       <c r="J2">
-        <v>240.15789592580032</v>
+        <v>240.15789589937663</v>
       </c>
       <c r="K2">
-        <v>251.35507462141229</v>
+        <v>251.3550745569309</v>
       </c>
       <c r="L2">
-        <v>232.65733407286598</v>
+        <v>232.6573340587986</v>
       </c>
       <c r="M2">
-        <v>298.81213036023041</v>
+        <v>298.81213031783858</v>
       </c>
       <c r="N2">
-        <v>289.32168106447409</v>
+        <v>289.32168099038631</v>
       </c>
       <c r="O2">
-        <v>262.52707068039871</v>
+        <v>262.52707065191231</v>
       </c>
       <c r="P2">
-        <v>278.64339867267017</v>
+        <v>278.64339868701694</v>
       </c>
       <c r="Q2">
-        <v>328.23482193616064</v>
+        <v>328.2348219148347</v>
       </c>
       <c r="R2">
-        <v>303.32534831958935</v>
+        <v>303.32534830605175</v>
       </c>
       <c r="S2">
-        <v>294.05343837784505</v>
+        <v>294.05343836194015</v>
       </c>
       <c r="T2">
-        <v>295.94349721416228</v>
+        <v>295.94349718219581</v>
       </c>
       <c r="U2">
-        <v>239.28678465165714</v>
+        <v>239.28678460640401</v>
       </c>
       <c r="V2">
-        <v>295.15235441051391</v>
+        <v>295.15235435834813</v>
       </c>
       <c r="W2">
-        <v>307.12344858959301</v>
+        <v>307.12344856340258</v>
       </c>
       <c r="X2">
-        <v>267.44312681054043</v>
+        <v>267.4431268111129</v>
       </c>
       <c r="Y2">
-        <v>253.5664347859549</v>
+        <v>253.5664347662746</v>
       </c>
       <c r="Z2">
-        <v>224.51629140377645</v>
+        <v>224.51629137943925</v>
       </c>
       <c r="AA2">
-        <v>297.47499169106857</v>
+        <v>297.47499167466037</v>
       </c>
       <c r="AB2">
-        <v>270.07522284720488</v>
+        <v>270.0752228416942</v>
       </c>
       <c r="AC2">
-        <v>222.94321393814235</v>
+        <v>222.94321390293587</v>
       </c>
       <c r="AD2">
-        <v>270.85078749611836</v>
+        <v>270.85078747650078</v>
       </c>
       <c r="AE2">
-        <v>236.15860525471629</v>
+        <v>236.15860530416023</v>
       </c>
       <c r="AF2">
-        <v>272.80834613937748</v>
+        <v>272.808346139317</v>
       </c>
       <c r="AG2">
-        <v>236.21640411371783</v>
+        <v>236.21640405546214</v>
       </c>
       <c r="AH2">
-        <v>297.07684531251203</v>
+        <v>297.07684529420652</v>
       </c>
       <c r="AI2">
-        <v>240.41230864793647</v>
+        <v>240.41230862451275</v>
       </c>
       <c r="AJ2">
-        <v>246.21734144896845</v>
+        <v>246.21734140249265</v>
       </c>
       <c r="AK2">
-        <v>227.93530467286379</v>
+        <v>227.93530464597941</v>
       </c>
       <c r="AL2">
-        <v>296.73975537024472</v>
+        <v>296.73975538409888</v>
       </c>
       <c r="AM2">
-        <v>289.92500933461935</v>
+        <v>289.92500927746232</v>
       </c>
       <c r="AN2">
-        <v>257.34769719861754</v>
+        <v>257.34769713850034</v>
       </c>
       <c r="AO2">
-        <v>287.98903447428864</v>
+        <v>287.98903448146359</v>
       </c>
       <c r="AP2">
-        <v>336.53002006969342</v>
+        <v>336.53002005386776</v>
       </c>
       <c r="AQ2">
-        <v>308.60292680136564</v>
+        <v>308.60292676760866</v>
       </c>
       <c r="AR2">
-        <v>295.08618534031689</v>
+        <v>295.08618534292265</v>
       </c>
       <c r="AS2">
-        <v>296.98316633817825</v>
+        <v>296.98316634622955</v>
       </c>
       <c r="AT2">
-        <v>238.32589556214236</v>
+        <v>238.32589553698239</v>
       </c>
       <c r="AU2">
-        <v>297.67626529493396</v>
+        <v>297.67626527268885</v>
       </c>
       <c r="AV2">
-        <v>297.51339329072636</v>
+        <v>297.51339327750088</v>
       </c>
       <c r="AW2">
-        <v>264.33452345656741</v>
+        <v>264.33452344480844</v>
       </c>
       <c r="AX2">
-        <v>259.25090582417675</v>
+        <v>259.25090589796224</v>
       </c>
       <c r="AY2">
-        <v>246.84480224938449</v>
+        <v>246.84480224558618</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>293.19707610923274</v>
+        <v>293.19707612559671</v>
       </c>
       <c r="C3">
-        <v>262.28107242686531</v>
+        <v>262.28107244048851</v>
       </c>
       <c r="D3">
-        <v>219.43554898770938</v>
+        <v>219.43554897162804</v>
       </c>
       <c r="E3">
-        <v>260.1968484776578</v>
+        <v>260.19684846831916</v>
       </c>
       <c r="F3">
-        <v>241.61931224304442</v>
+        <v>241.6193121908064</v>
       </c>
       <c r="G3">
-        <v>268.86407432604875</v>
+        <v>268.86407430371997</v>
       </c>
       <c r="H3">
-        <v>230.43824286872172</v>
+        <v>230.43824283049005</v>
       </c>
       <c r="I3">
-        <v>311.29626231132352</v>
+        <v>311.29626229702069</v>
       </c>
       <c r="J3">
-        <v>240.77802110121337</v>
+        <v>240.77802109463522</v>
       </c>
       <c r="K3">
-        <v>253.52668945196919</v>
+        <v>253.52668941622238</v>
       </c>
       <c r="L3">
-        <v>270.73427176385536</v>
+        <v>270.73427171819708</v>
       </c>
       <c r="M3">
-        <v>298.54673451512724</v>
+        <v>298.546564385512</v>
       </c>
       <c r="N3">
-        <v>294.73978125141667</v>
+        <v>294.73978121257522</v>
       </c>
       <c r="O3">
-        <v>250.20360563115833</v>
+        <v>250.20360560472221</v>
       </c>
       <c r="P3">
-        <v>289.73734468674832</v>
+        <v>289.73734468421736</v>
       </c>
       <c r="Q3">
-        <v>323.18947040858723</v>
+        <v>323.18947037010952</v>
       </c>
       <c r="R3">
-        <v>303.99727455302855</v>
+        <v>303.99727452461184</v>
       </c>
       <c r="S3">
-        <v>298.42337088098509</v>
+        <v>298.42337086498833</v>
       </c>
       <c r="T3">
-        <v>277.10044074943676</v>
+        <v>277.10044070490824</v>
       </c>
       <c r="U3">
-        <v>219.20125240351254</v>
+        <v>219.20125237602525</v>
       </c>
       <c r="V3">
-        <v>303.00007816439864</v>
+        <v>303.00007814496587</v>
       </c>
       <c r="W3">
-        <v>265.20388635257933</v>
+        <v>265.2038862717809</v>
       </c>
       <c r="X3">
-        <v>268.8737782159393</v>
+        <v>268.87377815761914</v>
       </c>
       <c r="Y3">
-        <v>251.89023797267032</v>
+        <v>251.89023795509971</v>
       </c>
       <c r="Z3">
-        <v>260.1065728823711</v>
+        <v>260.10657287892872</v>
       </c>
       <c r="AA3">
-        <v>304.40801126544306</v>
+        <v>304.40801126281428</v>
       </c>
       <c r="AB3">
-        <v>255.38075525906385</v>
+        <v>255.38075525417679</v>
       </c>
       <c r="AC3">
-        <v>225.63556550590701</v>
+        <v>225.6355654633704</v>
       </c>
       <c r="AD3">
-        <v>260.53779813638562</v>
+        <v>260.53779803072541</v>
       </c>
       <c r="AE3">
-        <v>257.24950431821748</v>
+        <v>257.24950428898336</v>
       </c>
       <c r="AF3">
-        <v>266.98336460914692</v>
+        <v>266.98336460226221</v>
       </c>
       <c r="AG3">
-        <v>236.09285853008942</v>
+        <v>236.09285826165453</v>
       </c>
       <c r="AH3">
-        <v>315.19027624387655</v>
+        <v>315.19027627954227</v>
       </c>
       <c r="AI3">
-        <v>244.36519518767426</v>
+        <v>244.36519510121076</v>
       </c>
       <c r="AJ3">
-        <v>260.35530210878363</v>
+        <v>260.35530210064758</v>
       </c>
       <c r="AK3">
-        <v>248.83387248100232</v>
+        <v>248.83387246949962</v>
       </c>
       <c r="AL3">
-        <v>309.15111637374298</v>
+        <v>309.15111635394328</v>
       </c>
       <c r="AM3">
-        <v>308.32675566368141</v>
+        <v>308.32675562992677</v>
       </c>
       <c r="AN3">
-        <v>251.96893608276883</v>
+        <v>251.96893604029032</v>
       </c>
       <c r="AO3">
-        <v>291.80399697849384</v>
+        <v>291.80399696060283</v>
       </c>
       <c r="AP3">
-        <v>321.77411073603787</v>
+        <v>321.77411070479991</v>
       </c>
       <c r="AQ3">
-        <v>308.67917293597725</v>
+        <v>308.6791729380821</v>
       </c>
       <c r="AR3">
-        <v>298.17942965709358</v>
+        <v>298.17942965504665</v>
       </c>
       <c r="AS3">
-        <v>278.78924989838811</v>
+        <v>278.78924986711638</v>
       </c>
       <c r="AT3">
-        <v>223.35399182648223</v>
+        <v>223.3539918380535</v>
       </c>
       <c r="AU3">
-        <v>303.97558715545279</v>
+        <v>303.97558712377941</v>
       </c>
       <c r="AV3">
-        <v>270.47530677745175</v>
+        <v>270.47530673294682</v>
       </c>
       <c r="AW3">
-        <v>272.022863603448</v>
+        <v>272.0228635248219</v>
       </c>
       <c r="AX3">
-        <v>253.74809654000251</v>
+        <v>253.74809649890275</v>
       </c>
       <c r="AY3">
-        <v>264.52256397549257</v>
+        <v>264.52256394962035</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>274.58104751632982</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>265.48469883887083</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>196.72941563680649</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>270.85830705081435</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>201.84606739505455</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>274.68472328473393</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>238.52920921453287</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>301.48484711879559</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>240.15789589937663</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>251.3550745569309</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>232.6573340587986</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>298.81213031783858</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>289.32168099038631</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>262.52707065191231</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>278.64339868701694</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>328.2348219148347</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>303.32534830605175</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>294.05343836194015</v>
@@ -588,55 +477,55 @@
         <v>224.51629137943925</v>
       </c>
       <c r="AA2">
-        <v>297.47499167466037</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>270.0752228416942</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>222.94321390293587</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>270.85078747650078</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>236.15860530416023</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>272.808346139317</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>236.21640405546214</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>297.07684529420652</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>240.41230862451275</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>246.21734140249265</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>227.93530464597941</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>296.73975538409888</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>289.92500927746232</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>257.34769713850034</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>287.98903448146359</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>336.53002005386776</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>308.60292676760866</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>295.08618534292265</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>293.19707612559671</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>262.28107244048851</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>219.43554897162804</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>260.19684846831916</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>241.6193121908064</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>268.86407430371997</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>230.43824283049005</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>311.29626229702069</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>240.77802109463522</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>253.52668941622238</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>270.73427171819708</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>298.546564385512</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>294.73978121257522</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>250.20360560472221</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>289.73734468421736</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>323.18947037010952</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>303.99727452461184</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>298.42337086498833</v>
@@ -743,55 +629,55 @@
         <v>260.10657287892872</v>
       </c>
       <c r="AA3">
-        <v>304.40801126281428</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>255.38075525417679</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>225.6355654633704</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>260.53779803072541</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>257.24950428898336</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>266.98336460226221</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>236.09285826165453</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>315.19027627954227</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>244.36519510121076</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>260.35530210064758</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>248.83387246949962</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>309.15111635394328</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>308.32675562992677</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>251.96893604029032</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>291.80399696060283</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>321.77411070479991</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>308.6791729380821</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>298.17942965504665</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>274.58104755003876</v>
+        <v>262.52707065191231</v>
       </c>
       <c r="C2">
-        <v>265.48469883431295</v>
+        <v>303.32534830605175</v>
       </c>
       <c r="D2">
-        <v>196.72941547080796</v>
+        <v>257.34769713850034</v>
       </c>
       <c r="E2">
-        <v>270.85830713178166</v>
+        <v>308.60292676760866</v>
       </c>
       <c r="F2">
         <v>201.8460674111839</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>293.19707610923274</v>
+        <v>250.20360560472221</v>
       </c>
       <c r="C3">
-        <v>262.28107242686531</v>
+        <v>303.99727452461184</v>
       </c>
       <c r="D3">
-        <v>219.43554898770938</v>
+        <v>251.96893604029032</v>
       </c>
       <c r="E3">
-        <v>260.1968484776578</v>
+        <v>308.59097660620898</v>
       </c>
       <c r="F3">
         <v>241.61931224304442</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>274.58104755003876</v>
+        <v>289.32168099038631</v>
       </c>
       <c r="C2">
-        <v>265.48469883431295</v>
+        <v>262.52707065191231</v>
       </c>
       <c r="D2">
-        <v>196.72941547080796</v>
+        <v>289.92500927746232</v>
       </c>
       <c r="E2">
-        <v>270.85830713178166</v>
+        <v>257.34769713850034</v>
       </c>
       <c r="F2">
         <v>201.8460674111839</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>293.19707610923274</v>
+        <v>294.73978121257522</v>
       </c>
       <c r="C3">
-        <v>262.28107242686531</v>
+        <v>250.20360560472221</v>
       </c>
       <c r="D3">
-        <v>219.43554898770938</v>
+        <v>308.32675562992677</v>
       </c>
       <c r="E3">
-        <v>260.1968484776578</v>
+        <v>251.96893604029032</v>
       </c>
       <c r="F3">
         <v>241.61931224304442</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>274.58104751632982</v>
+      </c>
+      <c r="C2">
+        <v>265.48469883887083</v>
+      </c>
+      <c r="D2">
+        <v>196.72941563680649</v>
+      </c>
+      <c r="E2">
+        <v>270.85830705081435</v>
+      </c>
+      <c r="F2">
+        <v>201.84606739505455</v>
+      </c>
+      <c r="G2">
+        <v>274.68472328473393</v>
+      </c>
+      <c r="H2">
+        <v>238.52920921453287</v>
+      </c>
+      <c r="I2">
+        <v>301.48484711879559</v>
+      </c>
+      <c r="J2">
+        <v>240.15789589937663</v>
+      </c>
+      <c r="K2">
+        <v>251.3550745569309</v>
+      </c>
+      <c r="L2">
+        <v>232.6573340587986</v>
+      </c>
+      <c r="M2">
+        <v>298.81213031783858</v>
+      </c>
+      <c r="N2">
         <v>289.32168099038631</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>262.52707065191231</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>278.64339868701694</v>
+      </c>
+      <c r="Q2">
+        <v>328.2348219148347</v>
+      </c>
+      <c r="R2">
+        <v>303.32534830605175</v>
+      </c>
+      <c r="S2">
+        <v>294.05343836194015</v>
+      </c>
+      <c r="T2">
+        <v>295.94349718219581</v>
+      </c>
+      <c r="U2">
+        <v>239.28678460640401</v>
+      </c>
+      <c r="V2">
+        <v>295.15235435834813</v>
+      </c>
+      <c r="W2">
+        <v>307.12344856340258</v>
+      </c>
+      <c r="X2">
+        <v>267.4431268111129</v>
+      </c>
+      <c r="Y2">
+        <v>253.5664347662746</v>
+      </c>
+      <c r="Z2">
+        <v>224.51629137943925</v>
+      </c>
+      <c r="AA2">
+        <v>297.47499167466037</v>
+      </c>
+      <c r="AB2">
+        <v>270.0752228416942</v>
+      </c>
+      <c r="AC2">
+        <v>222.94321390293587</v>
+      </c>
+      <c r="AD2">
+        <v>270.85078747650078</v>
+      </c>
+      <c r="AE2">
+        <v>236.15860530416023</v>
+      </c>
+      <c r="AF2">
+        <v>272.808346139317</v>
+      </c>
+      <c r="AG2">
+        <v>236.21640405546214</v>
+      </c>
+      <c r="AH2">
+        <v>297.07684529420652</v>
+      </c>
+      <c r="AI2">
+        <v>240.41230862451275</v>
+      </c>
+      <c r="AJ2">
+        <v>246.21734140249265</v>
+      </c>
+      <c r="AK2">
+        <v>227.93530464597941</v>
+      </c>
+      <c r="AL2">
+        <v>296.73975538409888</v>
+      </c>
+      <c r="AM2">
         <v>289.92500927746232</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>257.34769713850034</v>
       </c>
-      <c r="F2">
-        <v>201.8460674111839</v>
-      </c>
-      <c r="G2">
-        <v>274.68472331127896</v>
-      </c>
-      <c r="H2">
-        <v>238.529209270862</v>
-      </c>
-      <c r="I2">
-        <v>301.48484712928689</v>
-      </c>
-      <c r="J2">
-        <v>240.15789592580032</v>
-      </c>
-      <c r="K2">
-        <v>251.35507462141229</v>
-      </c>
-      <c r="L2">
-        <v>232.65733407286598</v>
-      </c>
-      <c r="M2">
-        <v>298.81213036023041</v>
-      </c>
-      <c r="N2">
-        <v>289.32168106447409</v>
-      </c>
-      <c r="O2">
-        <v>262.52707068039871</v>
-      </c>
-      <c r="P2">
-        <v>278.64339867267017</v>
-      </c>
-      <c r="Q2">
-        <v>328.23482193616064</v>
-      </c>
-      <c r="R2">
-        <v>303.32534831958935</v>
-      </c>
-      <c r="S2">
-        <v>294.05343837784505</v>
-      </c>
-      <c r="T2">
-        <v>295.94349721416228</v>
-      </c>
-      <c r="U2">
-        <v>239.28678465165714</v>
-      </c>
-      <c r="V2">
-        <v>295.15235441051391</v>
-      </c>
-      <c r="W2">
-        <v>307.12344858959301</v>
-      </c>
-      <c r="X2">
-        <v>267.44312681054043</v>
-      </c>
-      <c r="Y2">
-        <v>253.5664347859549</v>
-      </c>
-      <c r="Z2">
-        <v>224.51629140377645</v>
-      </c>
-      <c r="AA2">
-        <v>297.47499169106857</v>
-      </c>
-      <c r="AB2">
-        <v>270.07522284720488</v>
-      </c>
-      <c r="AC2">
-        <v>222.94321393814235</v>
-      </c>
-      <c r="AD2">
-        <v>270.85078749611836</v>
-      </c>
-      <c r="AE2">
-        <v>236.15860525471629</v>
-      </c>
-      <c r="AF2">
-        <v>272.80834613937748</v>
-      </c>
-      <c r="AG2">
-        <v>236.21640411371783</v>
-      </c>
-      <c r="AH2">
-        <v>297.07684531251203</v>
-      </c>
-      <c r="AI2">
-        <v>240.41230864793647</v>
-      </c>
-      <c r="AJ2">
-        <v>246.21734144896845</v>
-      </c>
-      <c r="AK2">
-        <v>227.93530467286379</v>
-      </c>
-      <c r="AL2">
-        <v>296.73975537024472</v>
-      </c>
-      <c r="AM2">
-        <v>289.92500933461935</v>
-      </c>
-      <c r="AN2">
-        <v>257.34769719861754</v>
-      </c>
       <c r="AO2">
-        <v>287.98903447428864</v>
+        <v>287.98903448146359</v>
       </c>
       <c r="AP2">
-        <v>336.53002006969342</v>
+        <v>336.53002005386776</v>
       </c>
       <c r="AQ2">
-        <v>308.60292680136564</v>
+        <v>308.60292676760866</v>
       </c>
       <c r="AR2">
-        <v>295.08618534031689</v>
+        <v>295.08618534292265</v>
       </c>
       <c r="AS2">
-        <v>296.98316633817825</v>
+        <v>296.98316634622955</v>
       </c>
       <c r="AT2">
-        <v>238.32589556214236</v>
+        <v>238.32589553698239</v>
       </c>
       <c r="AU2">
-        <v>297.67626529493396</v>
+        <v>297.67626527268885</v>
       </c>
       <c r="AV2">
-        <v>297.51339329072636</v>
+        <v>297.51339327750088</v>
       </c>
       <c r="AW2">
-        <v>264.33452345656741</v>
+        <v>264.33452344480844</v>
       </c>
       <c r="AX2">
-        <v>259.25090582417675</v>
+        <v>259.25090589796224</v>
       </c>
       <c r="AY2">
-        <v>246.84480224938449</v>
+        <v>246.84480224558618</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>293.19707612559671</v>
+      </c>
+      <c r="C3">
+        <v>262.28107244048851</v>
+      </c>
+      <c r="D3">
+        <v>219.43554897162804</v>
+      </c>
+      <c r="E3">
+        <v>260.19684846831916</v>
+      </c>
+      <c r="F3">
+        <v>241.6193121908064</v>
+      </c>
+      <c r="G3">
+        <v>268.86407430371997</v>
+      </c>
+      <c r="H3">
+        <v>230.43824283049005</v>
+      </c>
+      <c r="I3">
+        <v>311.29626229702069</v>
+      </c>
+      <c r="J3">
+        <v>240.77802109463522</v>
+      </c>
+      <c r="K3">
+        <v>253.52668941622238</v>
+      </c>
+      <c r="L3">
+        <v>270.73427171819708</v>
+      </c>
+      <c r="M3">
+        <v>298.546564385512</v>
+      </c>
+      <c r="N3">
         <v>294.73978121257522</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>250.20360560472221</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>289.73734468421736</v>
+      </c>
+      <c r="Q3">
+        <v>323.18947037010952</v>
+      </c>
+      <c r="R3">
+        <v>303.99727452461184</v>
+      </c>
+      <c r="S3">
+        <v>298.42337086498833</v>
+      </c>
+      <c r="T3">
+        <v>277.10044070490824</v>
+      </c>
+      <c r="U3">
+        <v>219.20125237602525</v>
+      </c>
+      <c r="V3">
+        <v>303.00007814496587</v>
+      </c>
+      <c r="W3">
+        <v>265.24255463352677</v>
+      </c>
+      <c r="X3">
+        <v>268.87377815761914</v>
+      </c>
+      <c r="Y3">
+        <v>251.89023795509971</v>
+      </c>
+      <c r="Z3">
+        <v>260.10657287892872</v>
+      </c>
+      <c r="AA3">
+        <v>304.40801126281428</v>
+      </c>
+      <c r="AB3">
+        <v>255.38075525417679</v>
+      </c>
+      <c r="AC3">
+        <v>225.6355654633704</v>
+      </c>
+      <c r="AD3">
+        <v>260.53779803072541</v>
+      </c>
+      <c r="AE3">
+        <v>257.24950428898336</v>
+      </c>
+      <c r="AF3">
+        <v>266.98336460226221</v>
+      </c>
+      <c r="AG3">
+        <v>236.09285826165453</v>
+      </c>
+      <c r="AH3">
+        <v>315.40127774067457</v>
+      </c>
+      <c r="AI3">
+        <v>244.36519510121076</v>
+      </c>
+      <c r="AJ3">
+        <v>260.35530210064758</v>
+      </c>
+      <c r="AK3">
+        <v>248.83387246949962</v>
+      </c>
+      <c r="AL3">
+        <v>309.15111635394328</v>
+      </c>
+      <c r="AM3">
         <v>308.32675562992677</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>251.96893604029032</v>
       </c>
-      <c r="F3">
-        <v>241.61931224304442</v>
-      </c>
-      <c r="G3">
-        <v>268.86407432604875</v>
-      </c>
-      <c r="H3">
-        <v>230.43824286872172</v>
-      </c>
-      <c r="I3">
-        <v>311.29626231132352</v>
-      </c>
-      <c r="J3">
-        <v>240.77802110121337</v>
-      </c>
-      <c r="K3">
-        <v>253.52668945196919</v>
-      </c>
-      <c r="L3">
-        <v>270.73427176385536</v>
-      </c>
-      <c r="M3">
-        <v>298.54673451512724</v>
-      </c>
-      <c r="N3">
-        <v>294.73978125141667</v>
-      </c>
-      <c r="O3">
-        <v>250.20360563115833</v>
-      </c>
-      <c r="P3">
-        <v>289.73734468674832</v>
-      </c>
-      <c r="Q3">
-        <v>323.18947040858723</v>
-      </c>
-      <c r="R3">
-        <v>303.99727455302855</v>
-      </c>
-      <c r="S3">
-        <v>298.42337088098509</v>
-      </c>
-      <c r="T3">
-        <v>277.10044074943676</v>
-      </c>
-      <c r="U3">
-        <v>219.20125240351254</v>
-      </c>
-      <c r="V3">
-        <v>303.00007816439864</v>
-      </c>
-      <c r="W3">
-        <v>265.24255469942761</v>
-      </c>
-      <c r="X3">
-        <v>268.8737782159393</v>
-      </c>
-      <c r="Y3">
-        <v>251.89023797267032</v>
-      </c>
-      <c r="Z3">
-        <v>260.1065728823711</v>
-      </c>
-      <c r="AA3">
-        <v>304.40801126544306</v>
-      </c>
-      <c r="AB3">
-        <v>255.38075525906385</v>
-      </c>
-      <c r="AC3">
-        <v>225.63556550590701</v>
-      </c>
-      <c r="AD3">
-        <v>260.53779813638562</v>
-      </c>
-      <c r="AE3">
-        <v>257.24950431821748</v>
-      </c>
-      <c r="AF3">
-        <v>266.98336460914692</v>
-      </c>
-      <c r="AG3">
-        <v>236.09285853008942</v>
-      </c>
-      <c r="AH3">
-        <v>315.40127769845537</v>
-      </c>
-      <c r="AI3">
-        <v>244.36519518767426</v>
-      </c>
-      <c r="AJ3">
-        <v>260.35530210878363</v>
-      </c>
-      <c r="AK3">
-        <v>248.83387248100232</v>
-      </c>
-      <c r="AL3">
-        <v>309.15111637374298</v>
-      </c>
-      <c r="AM3">
-        <v>308.32675566368141</v>
-      </c>
-      <c r="AN3">
-        <v>251.96893608276883</v>
-      </c>
       <c r="AO3">
-        <v>291.80399697849384</v>
+        <v>291.80399696060283</v>
       </c>
       <c r="AP3">
-        <v>321.77411073603787</v>
+        <v>321.77411070479991</v>
       </c>
       <c r="AQ3">
-        <v>308.59097654928252</v>
+        <v>308.59097660620898</v>
       </c>
       <c r="AR3">
-        <v>298.17942965709358</v>
+        <v>298.17942965504665</v>
       </c>
       <c r="AS3">
-        <v>278.78924989838811</v>
+        <v>278.78924986711638</v>
       </c>
       <c r="AT3">
-        <v>223.35399182648223</v>
+        <v>223.3539918380535</v>
       </c>
       <c r="AU3">
-        <v>303.97558715545279</v>
+        <v>303.97558712377941</v>
       </c>
       <c r="AV3">
-        <v>270.47530677745175</v>
+        <v>270.47530673294682</v>
       </c>
       <c r="AW3">
-        <v>272.022863603448</v>
+        <v>272.0228635248219</v>
       </c>
       <c r="AX3">
-        <v>253.74809654000251</v>
+        <v>253.74809649890275</v>
       </c>
       <c r="AY3">
-        <v>264.52256397549257</v>
+        <v>264.52256394962035</v>
       </c>
     </row>
   </sheetData>
